--- a/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
+++ b/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId2"/>
+    <sheet name="alerta_boleto" sheetId="247" r:id="rId2"/>
+    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>Campo</t>
   </si>
@@ -297,6 +298,42 @@
   </si>
   <si>
     <t>Identifica o endereço de email do cliente. Ex: 40.rebeca@gmail.com, 4120.marcia@gmail.com, etc</t>
+  </si>
+  <si>
+    <t>[dbo].[alerta_boleto]</t>
+  </si>
+  <si>
+    <t>UN_NEGOCIO</t>
+  </si>
+  <si>
+    <t>DT_APROVACAO</t>
+  </si>
+  <si>
+    <t>NUMPEDIDOS</t>
+  </si>
+  <si>
+    <t>VL_TOTAL</t>
+  </si>
+  <si>
+    <t>Identifica a unidade de negócio através da sua descrição. Ex: AOC, ATACADO, B2C CASAS BAHIA, etc</t>
+  </si>
+  <si>
+    <t>Identifica a data da aprovação no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Quantidade de Pedidos</t>
+  </si>
+  <si>
+    <t>Valor Total dos Pedidos</t>
+  </si>
+  <si>
+    <t>pedido_venda_entrega_pagto</t>
+  </si>
+  <si>
+    <t>npro_pedido_cab</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_boleto.dtsx</t>
   </si>
 </sst>
 </file>
@@ -355,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -572,6 +609,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -584,7 +634,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -637,6 +687,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,6 +714,51 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -993,7 +1094,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1022,23 +1123,32 @@
     </row>
     <row r="3" spans="2:5" ht="15">
       <c r="B3" s="21" t="str">
+        <f>alerta_boleto!B9</f>
+        <v>[dbo].[alerta_boleto]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>alerta_boleto!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>alerta_boleto!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_boleto.dtsx</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="21" t="str">
         <f>tb_entrega_expressa_urgente!B9</f>
         <v>[dbo].[tb_entrega_expressa_urgente]</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C4" s="18" t="str">
         <f>tb_entrega_expressa_urgente!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D3" s="19" t="str">
+      <c r="D4" s="19" t="str">
         <f>tb_entrega_expressa_urgente!B10</f>
         <v>N:\Migracao\Alertas Prod\Alertas\stg_entrega_expressa_urgente.dtsx</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="21"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" ht="15">
@@ -1114,11 +1224,11 @@
       <c r="E16" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E8">
+  <sortState ref="B3:E4">
     <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" location="fact_approved_2014!A1" display="fact_approved_2014!A1"/>
+    <hyperlink ref="B4" location="fact_approved_2014!A1" display="fact_approved_2014!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1129,10 +1239,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1179,6 +1289,150 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
+++ b/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
     <sheet name="alerta_boleto" sheetId="247" r:id="rId2"/>
-    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId3"/>
+    <sheet name="stg_televendas_b2b" sheetId="248" r:id="rId3"/>
+    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>Campo</t>
   </si>
@@ -334,6 +335,144 @@
   </si>
   <si>
     <t>N:\Migracao\Alertas Prod\Alertas\alerta_boleto.dtsx</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_televendas_b2b]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_televendas_b2b.dtsx</t>
+  </si>
+  <si>
+    <t>UnidadeNegocio</t>
+  </si>
+  <si>
+    <t>IdCompra</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>CanalVenda</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>IdSku</t>
+  </si>
+  <si>
+    <t>DescricaoProduto</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>ValorPrecoUnitario</t>
+  </si>
+  <si>
+    <t>ValorDescontoUnitario</t>
+  </si>
+  <si>
+    <t>ValorFreteUnitario</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>ValorTotal</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 13, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Compra através do seu número</t>
+  </si>
+  <si>
+    <t>Identifica a data da Compra no formato AAAA-MM-DD HH:MM:SSS</t>
+  </si>
+  <si>
+    <t>Identifica o Canal de Venda através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o Vendedor através do seu nome</t>
+  </si>
+  <si>
+    <t>Identifica o produto através do seu código</t>
+  </si>
+  <si>
+    <t>Identifica o produto através da sua descrição</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através da sua descrição</t>
+  </si>
+  <si>
+    <t>Valor do Preço Unitário do Produto</t>
+  </si>
+  <si>
+    <t>Valor do Desconto Unitário do Produto</t>
+  </si>
+  <si>
+    <t>Valor do Frete Unitário do Produto</t>
+  </si>
+  <si>
+    <t>Quantidade Vendida</t>
+  </si>
+  <si>
+    <t>Valor Total da Compra</t>
+  </si>
+  <si>
+    <t>Identifica o cliente através do seu CPF/CNPJ</t>
+  </si>
+  <si>
+    <t>Identifica o Cliente através da sua razão Social ou nome completo</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade Federativa do cliente através de sua sigla</t>
+  </si>
+  <si>
+    <t>Identifica o Muncípio do cliente através do seu nome</t>
+  </si>
+  <si>
+    <t>Compra</t>
+  </si>
+  <si>
+    <t>CompraEntrega</t>
+  </si>
+  <si>
+    <t>CompraEntregaSku</t>
+  </si>
+  <si>
+    <t>Sku</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>CompraEnderecoEntrega</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>LOJA</t>
   </si>
 </sst>
 </file>
@@ -759,6 +898,51 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1093,9 +1277,7 @@
   </sheetPr>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1138,23 +1320,32 @@
     </row>
     <row r="4" spans="2:5" ht="15">
       <c r="B4" s="21" t="str">
+        <f>stg_televendas_b2b!B9</f>
+        <v>[dbo].[stg_televendas_b2b]</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>stg_televendas_b2b!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D4" s="19" t="str">
+        <f>stg_televendas_b2b!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_televendas_b2b.dtsx</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="21" t="str">
         <f>tb_entrega_expressa_urgente!B9</f>
         <v>[dbo].[tb_entrega_expressa_urgente]</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C5" s="18" t="str">
         <f>tb_entrega_expressa_urgente!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D5" s="19" t="str">
         <f>tb_entrega_expressa_urgente!B10</f>
         <v>N:\Migracao\Alertas Prod\Alertas\stg_entrega_expressa_urgente.dtsx</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="21"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="2:5" ht="15">
@@ -1224,11 +1415,12 @@
       <c r="E16" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E4">
-    <sortCondition ref="B3"/>
+  <sortState ref="B3:E5">
+    <sortCondition ref="B5"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B4" location="fact_approved_2014!A1" display="fact_approved_2014!A1"/>
+    <hyperlink ref="B5" location="fact_approved_2014!A1" display="fact_approved_2014!A1"/>
+    <hyperlink ref="B4" location="stg_televendas_b2b!A1" display="stg_televendas_b2b!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1241,9 +1433,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1383,11 +1573,9 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1433,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1441,7 +1629,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -1461,6 +1649,286 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1">
+      <c r="A23" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1">
+      <c r="A24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1">
+      <c r="A25" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1">
+      <c r="A26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1">
+      <c r="A27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1">
+      <c r="A28" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -1515,7 +1983,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.25">
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>21</v>
       </c>
@@ -1786,10 +2254,10 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="30" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="25" t="s">
         <v>93</v>
       </c>
     </row>

--- a/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
+++ b/Documentação/Planilhas/Layouts/Alertas_Prod.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
-    <sheet name="alerta_boleto" sheetId="247" r:id="rId2"/>
-    <sheet name="stg_televendas_b2b" sheetId="248" r:id="rId3"/>
-    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId4"/>
+    <sheet name="stg_alerta_compras_pre_venda" sheetId="253" r:id="rId2"/>
+    <sheet name="alerta_boleto" sheetId="247" r:id="rId3"/>
+    <sheet name="stg_alerta_kit_loja" sheetId="252" r:id="rId4"/>
+    <sheet name="stg_tb_alerta_video" sheetId="249" r:id="rId5"/>
+    <sheet name="stg_televendas_b2b" sheetId="248" r:id="rId6"/>
+    <sheet name="tb_alerta_precos_divergentes" sheetId="251" r:id="rId7"/>
+    <sheet name="tb_alerta_video" sheetId="250" r:id="rId8"/>
+    <sheet name="tb_entrega_expressa_urgente" sheetId="246" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="222">
   <si>
     <t>Campo</t>
   </si>
@@ -473,6 +478,216 @@
   </si>
   <si>
     <t>LOJA</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_tb_alerta_video]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_videos.dtsx</t>
+  </si>
+  <si>
+    <t>nr_id_unidade_negocio</t>
+  </si>
+  <si>
+    <t>nr_item_sku</t>
+  </si>
+  <si>
+    <t>nr_id_produto_loja</t>
+  </si>
+  <si>
+    <t>yn_tem_video</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através do seu código. Ex: 1, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Item SKU através do seu código. Ex: 1525, 1526, etc</t>
+  </si>
+  <si>
+    <t>Identifica o produto da loja através do seu código interno. Ex: 1, 2, 3, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o produto tem vídeo (Sim/Não)</t>
+  </si>
+  <si>
+    <t>ProdutoCampoValor</t>
+  </si>
+  <si>
+    <t>GuiaVideo</t>
+  </si>
+  <si>
+    <t>[dbo].[tb_alerta_video]</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>QtdVenda</t>
+  </si>
+  <si>
+    <t>DsProduto</t>
+  </si>
+  <si>
+    <t>FlVideoPF</t>
+  </si>
+  <si>
+    <t>FlVideoEX</t>
+  </si>
+  <si>
+    <t>FlVideoCB</t>
+  </si>
+  <si>
+    <t>QtdDisponivel</t>
+  </si>
+  <si>
+    <t>Quantidade de produtos vendidos</t>
+  </si>
+  <si>
+    <t>Identifica o Item SKU através da sua descrição. Ex: PRANCHA CERAMIC INFRARED VM BIV GAMA, PRANCHA LASER ION PR BIV GAMA, etc</t>
+  </si>
+  <si>
+    <t>Identifica se o produto tem vídeo no Ponto Frio (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Identifica se o produto tem vídeo no Extra (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Identifica se o produto tem vídeo nas Casas Bahia (Sim/Não)</t>
+  </si>
+  <si>
+    <t>Quantidade de Produtos disponíveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vw_fact_ordersweb </t>
+  </si>
+  <si>
+    <t>ods_product</t>
+  </si>
+  <si>
+    <t>MIS_DW</t>
+  </si>
+  <si>
+    <t>stg_tb_alerta_video</t>
+  </si>
+  <si>
+    <t>stg_estoque_loja</t>
+  </si>
+  <si>
+    <t>[dbo].[tb_alerta_precos_divergentes]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_precos_divergentes.dtsx</t>
+  </si>
+  <si>
+    <t>IdProduto</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>PrecoAnterior</t>
+  </si>
+  <si>
+    <t>PrecoVenda</t>
+  </si>
+  <si>
+    <t>Identifica a Unidade de Negócio através da sua descrição. Ex: Ponto Frio, etc</t>
+  </si>
+  <si>
+    <t>Identifica o Departamento através da sua descrição. Ex: Ar e Ventilação, Esporte &amp; Lazer, Automotivo, Moda, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Categoria através da sua descrição. Ex: Split, Piscinas, Pneus, Calcinhas, etc</t>
+  </si>
+  <si>
+    <t>Preço anterior do Produto</t>
+  </si>
+  <si>
+    <t>Preço de Venda do Produto</t>
+  </si>
+  <si>
+    <t>SkuLojista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produto </t>
+  </si>
+  <si>
+    <t>[dbo].[stg_alerta_kit_loja]</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_kit_loja.dtsx</t>
+  </si>
+  <si>
+    <t>IdSkuPai</t>
+  </si>
+  <si>
+    <t>PrecoCusto</t>
+  </si>
+  <si>
+    <t>Identifica o SKU Pai através do seu código. Ex: 1000025548, 1000039397, 1000039398, etc</t>
+  </si>
+  <si>
+    <t>Identifica o SKU Pai através da sua descrição. Ex: Livro - Kit Dexter (04 Volumes), Jogo Dishonored  - PS3, Jogo Dishonored  - Xbox 360, etc</t>
+  </si>
+  <si>
+    <t>Preço de Custo do Produto</t>
+  </si>
+  <si>
+    <t>SkuKitFilho</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Skulojista</t>
+  </si>
+  <si>
+    <t>DadosConfiguracao</t>
+  </si>
+  <si>
+    <t>[com].[stg_alerta_compras_pre_venda]</t>
+  </si>
+  <si>
+    <t>MIS_STAGING</t>
+  </si>
+  <si>
+    <t>ds_nome</t>
+  </si>
+  <si>
+    <t>dt_PrevisaoChegada</t>
+  </si>
+  <si>
+    <t>nr_qtdeComprada</t>
+  </si>
+  <si>
+    <t>ds_loja</t>
+  </si>
+  <si>
+    <t>nr_idSku</t>
+  </si>
+  <si>
+    <t>Identifica o produto através da sua descrição. Ex: Livro - Demi Lovato: Edição Especial Para Fãs - Cintia Dalpino, DVD - Tim Maia, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Data de Previsão da Chegada do produto no formato AAAA-MM-DD HH:MM:SSSS</t>
+  </si>
+  <si>
+    <t>Quantidade comprada do produto</t>
+  </si>
+  <si>
+    <t>Identifica a Loja através da sua descrição. Ex: Casas Bahia, etc</t>
+  </si>
+  <si>
+    <t>Identifica o SKU através do seu código. Ex: 4039478, 3938163, etc</t>
+  </si>
+  <si>
+    <t>LOJAEX</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Alertas Prod\Alertas\alerta_compras_de_pre_vendas.dtsx</t>
   </si>
 </sst>
 </file>
@@ -943,6 +1158,231 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1277,7 +1717,7 @@
   </sheetPr>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1305,77 +1745,122 @@
     </row>
     <row r="3" spans="2:5" ht="15">
       <c r="B3" s="21" t="str">
+        <f>stg_alerta_compras_pre_venda!B9</f>
+        <v>[com].[stg_alerta_compras_pre_venda]</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>stg_alerta_compras_pre_venda!B8</f>
+        <v>MIS_STAGING</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f>stg_alerta_compras_pre_venda!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_compras_de_pre_vendas.dtsx</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="21" t="str">
         <f>alerta_boleto!B9</f>
         <v>[dbo].[alerta_boleto]</v>
       </c>
-      <c r="C3" s="18" t="str">
+      <c r="C4" s="18" t="str">
         <f>alerta_boleto!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D3" s="19" t="str">
+      <c r="D4" s="19" t="str">
         <f>alerta_boleto!B10</f>
         <v>N:\Migracao\Alertas Prod\Alertas\alerta_boleto.dtsx</v>
       </c>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="2:5" ht="15">
-      <c r="B4" s="21" t="str">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="21" t="str">
+        <f>stg_alerta_kit_loja!B9</f>
+        <v>[dbo].[stg_alerta_kit_loja]</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>stg_alerta_kit_loja!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D5" s="19" t="str">
+        <f>stg_alerta_kit_loja!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_kit_loja.dtsx</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="21" t="str">
+        <f>stg_tb_alerta_video!B9</f>
+        <v>[dbo].[stg_tb_alerta_video]</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>stg_tb_alerta_video!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f>stg_tb_alerta_video!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_videos.dtsx</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="21" t="str">
         <f>stg_televendas_b2b!B9</f>
         <v>[dbo].[stg_televendas_b2b]</v>
       </c>
-      <c r="C4" s="18" t="str">
+      <c r="C7" s="18" t="str">
         <f>stg_televendas_b2b!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D7" s="19" t="str">
         <f>stg_televendas_b2b!B10</f>
         <v>N:\Migracao\Alertas Prod\Alertas\alerta_televendas_b2b.dtsx</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="2:5" ht="15">
-      <c r="B5" s="21" t="str">
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="21" t="str">
+        <f>tb_alerta_precos_divergentes!B9</f>
+        <v>[dbo].[tb_alerta_precos_divergentes]</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>tb_alerta_precos_divergentes!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>tb_alerta_precos_divergentes!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_precos_divergentes.dtsx</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="21" t="str">
+        <f>tb_alerta_video!B9</f>
+        <v>[dbo].[tb_alerta_video]</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>tb_alerta_video!B8</f>
+        <v>MIS_RELATORIO</v>
+      </c>
+      <c r="D9" s="19" t="str">
+        <f>tb_alerta_video!B10</f>
+        <v>N:\Migracao\Alertas Prod\Alertas\alerta_videos.dtsx</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="21" t="str">
         <f>tb_entrega_expressa_urgente!B9</f>
         <v>[dbo].[tb_entrega_expressa_urgente]</v>
       </c>
-      <c r="C5" s="18" t="str">
+      <c r="C10" s="18" t="str">
         <f>tb_entrega_expressa_urgente!B8</f>
         <v>MIS_RELATORIO</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D10" s="19" t="str">
         <f>tb_entrega_expressa_urgente!B10</f>
         <v>N:\Migracao\Alertas Prod\Alertas\stg_entrega_expressa_urgente.dtsx</v>
       </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="2:5" ht="15">
-      <c r="B6" s="21"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="2:5" ht="15">
-      <c r="B7" s="21"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="2:5" ht="15">
-      <c r="B8" s="21"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="2:5" ht="15">
-      <c r="B9" s="21"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="2:5" ht="15">
-      <c r="B10" s="21"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="2:5" ht="15">
@@ -1415,18 +1900,184 @@
       <c r="E16" s="16"/>
     </row>
   </sheetData>
-  <sortState ref="B3:E5">
-    <sortCondition ref="B5"/>
+  <sortState ref="B3:E10">
+    <sortCondition ref="B3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B5" location="fact_approved_2014!A1" display="fact_approved_2014!A1"/>
-    <hyperlink ref="B4" location="stg_televendas_b2b!A1" display="stg_televendas_b2b!A1"/>
+    <hyperlink ref="B10" location="tb_entrega_expressa_urgente!A1" display="tb_entrega_expressa_urgente!A1"/>
+    <hyperlink ref="B7" location="stg_televendas_b2b!A1" display="stg_televendas_b2b!A1"/>
+    <hyperlink ref="B6" location="stg_tb_alerta_video!A1" display="stg_tb_alerta_video!A1"/>
+    <hyperlink ref="B9" location="tb_alerta_video!A1" display="tb_alerta_video!A1"/>
+    <hyperlink ref="B8" location="tb_alerta_precos_divergentes!A1" display="tb_alerta_precos_divergentes!A1"/>
+    <hyperlink ref="B5" location="stg_alerta_kit_loja!A1" display="stg_alerta_kit_loja!A1"/>
+    <hyperlink ref="B3" location="stg_alerta_compras_pre_venda!A1" display="stg_alerta_compras_pre_venda!A1"/>
+    <hyperlink ref="B4" location="alerta_boleto!A1" display="alerta_boleto!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1568,7 +2219,325 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="D18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1848,14 +2817,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1901,6 +2870,362 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="D14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1">
+      <c r="A20" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1">
+      <c r="A21" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
